--- a/prodfunction.xlsx
+++ b/prodfunction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>INDUSTRY</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Households as employers of domestic staff</t>
+  </si>
+  <si>
+    <t>WAGESHARE</t>
   </si>
 </sst>
 </file>
@@ -798,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +815,7 @@
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,8 +831,11 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -845,8 +851,12 @@
       <c r="E2" s="8">
         <v>7616</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>ROUND(D2/(B2-C2),2)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -862,8 +872,12 @@
       <c r="E3" s="8">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">ROUND(D3/(B3-C3),2)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -879,8 +893,12 @@
       <c r="E4" s="8">
         <v>381</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -896,8 +914,12 @@
       <c r="E5" s="8">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -913,8 +935,12 @@
       <c r="E6" s="8">
         <v>23119</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -930,8 +956,12 @@
       <c r="E7" s="8">
         <v>928</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -947,8 +977,12 @@
       <c r="E8" s="8">
         <v>2275</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -964,8 +998,12 @@
       <c r="E9" s="8">
         <v>218</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -981,8 +1019,12 @@
       <c r="E10" s="8">
         <v>417</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1040,12 @@
       <c r="E11" s="8">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1061,12 @@
       <c r="E12" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1032,8 +1082,12 @@
       <c r="E13" s="8">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1103,12 @@
       <c r="E14" s="8">
         <v>574</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1066,8 +1124,12 @@
       <c r="E15" s="8">
         <v>801</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1145,12 @@
       <c r="E16" s="8">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1100,8 +1166,12 @@
       <c r="E17" s="8">
         <v>2317</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1117,8 +1187,12 @@
       <c r="E18" s="8">
         <v>772</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1134,8 +1208,12 @@
       <c r="E19" s="8">
         <v>676</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1151,8 +1229,12 @@
       <c r="E20" s="8">
         <v>602</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1168,8 +1250,12 @@
       <c r="E21" s="8">
         <v>387</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1185,8 +1271,12 @@
       <c r="E22" s="8">
         <v>479</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1202,8 +1292,12 @@
       <c r="E23" s="8">
         <v>847</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1219,8 +1313,12 @@
       <c r="E24" s="8">
         <v>1391</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1236,8 +1334,12 @@
       <c r="E25" s="8">
         <v>1593</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1253,8 +1355,12 @@
       <c r="E26" s="8">
         <v>388</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1270,8 +1376,12 @@
       <c r="E27" s="8">
         <v>731</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1287,8 +1397,12 @@
       <c r="E28" s="8">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1304,8 +1418,12 @@
       <c r="E29" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1321,8 +1439,12 @@
       <c r="E30" s="8">
         <v>-104</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1338,8 +1460,12 @@
       <c r="E31" s="8">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -1355,8 +1481,12 @@
       <c r="E32" s="8">
         <v>9327</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -1372,8 +1502,12 @@
       <c r="E33" s="8">
         <v>1468</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1389,8 +1523,12 @@
       <c r="E34" s="8">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -1406,8 +1544,12 @@
       <c r="E35" s="8">
         <v>574</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1423,8 +1565,12 @@
       <c r="E36" s="8">
         <v>268</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -1440,8 +1586,12 @@
       <c r="E37" s="8">
         <v>310</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -1457,8 +1607,12 @@
       <c r="E38" s="8">
         <v>627</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -1474,8 +1628,12 @@
       <c r="E39" s="8">
         <v>1732</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -1491,8 +1649,12 @@
       <c r="E40" s="8">
         <v>1228</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -1508,8 +1670,12 @@
       <c r="E41" s="8">
         <v>1021</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -1525,8 +1691,12 @@
       <c r="E42" s="8">
         <v>1908</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -1542,8 +1712,12 @@
       <c r="E43" s="8">
         <v>933</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
@@ -1559,8 +1733,12 @@
       <c r="E44" s="8">
         <v>-10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1576,8 +1754,12 @@
       <c r="E45" s="8">
         <v>2509</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -1593,8 +1775,12 @@
       <c r="E46" s="8">
         <v>600</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -1610,8 +1796,12 @@
       <c r="E47" s="8">
         <v>1027</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -1627,8 +1817,12 @@
       <c r="E48" s="8">
         <v>2401</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -1644,8 +1838,12 @@
       <c r="E49" s="8">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -1661,8 +1859,12 @@
       <c r="E50" s="8">
         <v>366</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>63</v>
       </c>
@@ -1678,8 +1880,12 @@
       <c r="E51" s="8">
         <v>1274</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -1695,8 +1901,12 @@
       <c r="E52" s="8">
         <v>4079</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
@@ -1712,8 +1922,12 @@
       <c r="E53" s="8">
         <v>2474</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -1729,8 +1943,12 @@
       <c r="E54" s="8">
         <v>2854</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
@@ -1746,8 +1964,12 @@
       <c r="E55" s="8">
         <v>3095</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
@@ -1763,8 +1985,12 @@
       <c r="E56" s="8">
         <v>4087</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
@@ -1780,8 +2006,12 @@
       <c r="E57" s="8">
         <v>-31</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -1797,8 +2027,12 @@
       <c r="E58" s="8">
         <v>37749</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -1814,8 +2048,12 @@
       <c r="E59" s="8">
         <v>9042</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>72</v>
       </c>
@@ -1831,8 +2069,12 @@
       <c r="E60" s="8">
         <v>16405</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -1848,8 +2090,12 @@
       <c r="E61" s="8">
         <v>24417</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +2111,12 @@
       <c r="E62" s="8">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -1882,8 +2132,12 @@
       <c r="E63" s="8">
         <v>7680</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -1899,8 +2153,12 @@
       <c r="E64" s="8">
         <v>1444</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -1916,8 +2174,12 @@
       <c r="E65" s="8">
         <v>3013</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
@@ -1933,8 +2195,12 @@
       <c r="E66" s="8">
         <v>823</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -1950,8 +2216,12 @@
       <c r="E67" s="8">
         <v>2037</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <f t="shared" ref="F67:F106" si="1">ROUND(D67/(B67-C67),2)</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -1967,8 +2237,12 @@
       <c r="E68" s="8">
         <v>2080</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
@@ -1984,8 +2258,12 @@
       <c r="E69" s="8">
         <v>6719</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
@@ -2001,8 +2279,12 @@
       <c r="E70" s="8">
         <v>3599</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
@@ -2018,8 +2300,12 @@
       <c r="E71" s="8">
         <v>6717</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -2035,8 +2321,12 @@
       <c r="E72" s="8">
         <v>11902</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
@@ -2052,8 +2342,12 @@
       <c r="E73" s="8">
         <v>12469</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
@@ -2069,8 +2363,12 @@
       <c r="E74" s="8">
         <v>1659</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
@@ -2086,8 +2384,12 @@
       <c r="E75" s="8">
         <v>31676</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>82</v>
       </c>
@@ -2103,8 +2405,12 @@
       <c r="E76" s="8">
         <v>14084</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>83</v>
       </c>
@@ -2120,8 +2426,12 @@
       <c r="E77" s="8">
         <v>4901</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
@@ -2137,8 +2447,12 @@
       <c r="E78" s="8">
         <v>32728</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -2154,8 +2468,12 @@
       <c r="E79" s="8">
         <v>127682</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
@@ -2171,8 +2489,12 @@
       <c r="E80" s="8">
         <v>4987</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>26</v>
       </c>
@@ -2188,8 +2510,12 @@
       <c r="E81" s="8">
         <v>10229</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
@@ -2205,8 +2531,12 @@
       <c r="E82" s="8">
         <v>6251</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
@@ -2222,8 +2552,12 @@
       <c r="E83" s="8">
         <v>5713</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
@@ -2239,8 +2573,12 @@
       <c r="E84" s="8">
         <v>5213</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
@@ -2256,8 +2594,12 @@
       <c r="E85" s="8">
         <v>4130</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
@@ -2273,8 +2615,12 @@
       <c r="E86" s="8">
         <v>3064</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -2290,8 +2636,12 @@
       <c r="E87" s="8">
         <v>2326</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -2307,8 +2657,12 @@
       <c r="E88" s="8">
         <v>741</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -2324,8 +2678,12 @@
       <c r="E89" s="8">
         <v>6182</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -2341,8 +2699,12 @@
       <c r="E90" s="8">
         <v>5847</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -2358,8 +2720,12 @@
       <c r="E91" s="8">
         <v>2495</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
@@ -2375,8 +2741,12 @@
       <c r="E92" s="8">
         <v>1541</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
@@ -2392,8 +2762,12 @@
       <c r="E93" s="8">
         <v>4276</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
@@ -2409,8 +2783,12 @@
       <c r="E94" s="8">
         <v>5161</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
@@ -2426,8 +2804,12 @@
       <c r="E95" s="8">
         <v>18286</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -2443,8 +2825,12 @@
       <c r="E96" s="8">
         <v>10898</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
@@ -2460,8 +2846,12 @@
       <c r="E97" s="8">
         <v>22968</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>102</v>
       </c>
@@ -2477,8 +2867,12 @@
       <c r="E98" s="8">
         <v>5629</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>103</v>
       </c>
@@ -2494,8 +2888,12 @@
       <c r="E99" s="8">
         <v>2132</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
@@ -2511,8 +2909,12 @@
       <c r="E100" s="8">
         <v>-141</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>105</v>
       </c>
@@ -2528,8 +2930,12 @@
       <c r="E101" s="8">
         <v>6285</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>106</v>
       </c>
@@ -2545,8 +2951,12 @@
       <c r="E102" s="8">
         <v>1366</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>107</v>
       </c>
@@ -2562,8 +2972,12 @@
       <c r="E103" s="8">
         <v>1886</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
@@ -2579,8 +2993,12 @@
       <c r="E104" s="8">
         <v>472</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>109</v>
       </c>
@@ -2596,8 +3014,12 @@
       <c r="E105" s="8">
         <v>10643</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>110</v>
       </c>
@@ -2613,11 +3035,15 @@
       <c r="E106" s="8">
         <v>395</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E108" s="3" t="s">
         <v>28</v>
       </c>

--- a/prodfunction.xlsx
+++ b/prodfunction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>INDUSTRY</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>WAGESHARE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -484,6 +487,9 @@
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify"/>
     </xf>
   </cellXfs>
@@ -801,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +821,7 @@
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,8 +840,11 @@
       <c r="F1" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -855,8 +864,11 @@
         <f>ROUND(D2/(B2-C2),2)</f>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -876,8 +888,11 @@
         <f t="shared" ref="F3:F66" si="0">ROUND(D3/(B3-C3),2)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -897,8 +912,11 @@
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -918,8 +936,11 @@
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -939,8 +960,11 @@
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -960,8 +984,11 @@
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -981,8 +1008,11 @@
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1002,8 +1032,11 @@
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1023,8 +1056,11 @@
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1044,8 +1080,11 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1065,8 +1104,11 @@
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +1128,11 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1152,11 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1176,11 @@
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1149,8 +1200,11 @@
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1170,8 +1224,11 @@
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1191,8 +1248,11 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1212,8 +1272,11 @@
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1233,8 +1296,11 @@
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1254,8 +1320,11 @@
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1275,8 +1344,11 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1296,8 +1368,11 @@
         <f t="shared" si="0"/>
         <v>0.74</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1317,8 +1392,11 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1338,8 +1416,11 @@
         <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1359,8 +1440,11 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1380,8 +1464,11 @@
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1401,8 +1488,11 @@
         <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1422,8 +1512,11 @@
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1443,8 +1536,11 @@
         <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1464,8 +1560,11 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -1485,8 +1584,11 @@
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -1506,8 +1608,11 @@
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1527,8 +1632,11 @@
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -1548,8 +1656,11 @@
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1569,8 +1680,11 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1704,11 @@
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -1611,8 +1728,11 @@
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -1632,8 +1752,11 @@
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -1653,8 +1776,11 @@
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -1674,8 +1800,11 @@
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -1695,8 +1824,11 @@
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -1716,8 +1848,11 @@
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1872,11 @@
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1758,8 +1896,11 @@
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -1779,8 +1920,11 @@
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -1800,8 +1944,11 @@
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -1821,8 +1968,11 @@
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -1842,8 +1992,11 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -1863,8 +2016,11 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>63</v>
       </c>
@@ -1884,8 +2040,11 @@
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,8 +2064,11 @@
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
@@ -1926,8 +2088,11 @@
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -1947,8 +2112,11 @@
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
@@ -1968,8 +2136,11 @@
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
@@ -1989,8 +2160,11 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
@@ -2010,8 +2184,11 @@
         <f t="shared" si="0"/>
         <v>1.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -2031,8 +2208,11 @@
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -2052,8 +2232,11 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>72</v>
       </c>
@@ -2073,8 +2256,11 @@
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -2094,8 +2280,11 @@
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -2115,8 +2304,11 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -2136,8 +2328,11 @@
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -2157,8 +2352,11 @@
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -2178,8 +2376,11 @@
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
@@ -2199,8 +2400,11 @@
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -2220,8 +2424,11 @@
         <f t="shared" ref="F67:F106" si="1">ROUND(D67/(B67-C67),2)</f>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -2241,8 +2448,11 @@
         <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
@@ -2262,8 +2472,11 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
@@ -2283,8 +2496,11 @@
         <f t="shared" si="1"/>
         <v>0.66</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
@@ -2304,8 +2520,11 @@
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -2325,8 +2544,11 @@
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
@@ -2346,8 +2568,11 @@
         <f t="shared" si="1"/>
         <v>0.66</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
@@ -2367,8 +2592,11 @@
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
@@ -2388,8 +2616,11 @@
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>82</v>
       </c>
@@ -2409,8 +2640,11 @@
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>83</v>
       </c>
@@ -2430,8 +2664,11 @@
         <f t="shared" si="1"/>
         <v>0.73</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
@@ -2451,8 +2688,11 @@
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -2472,8 +2712,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
@@ -2493,8 +2736,11 @@
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>26</v>
       </c>
@@ -2514,8 +2760,11 @@
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
@@ -2535,8 +2784,11 @@
         <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
@@ -2556,8 +2808,11 @@
         <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
@@ -2577,8 +2832,11 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
@@ -2598,8 +2856,11 @@
         <f t="shared" si="1"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
@@ -2619,8 +2880,11 @@
         <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -2640,8 +2904,11 @@
         <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -2661,8 +2928,11 @@
         <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -2682,8 +2952,11 @@
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -2703,8 +2976,11 @@
         <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -2724,8 +3000,11 @@
         <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
@@ -2745,8 +3024,11 @@
         <f t="shared" si="1"/>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
@@ -2766,8 +3048,11 @@
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
@@ -2787,8 +3072,11 @@
         <f t="shared" si="1"/>
         <v>0.67</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
@@ -2808,8 +3096,11 @@
         <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -2829,8 +3120,11 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
@@ -2850,8 +3144,11 @@
         <f t="shared" si="1"/>
         <v>0.73</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>102</v>
       </c>
@@ -2871,8 +3168,11 @@
         <f t="shared" si="1"/>
         <v>0.79</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>103</v>
       </c>
@@ -2892,8 +3192,11 @@
         <f t="shared" si="1"/>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
@@ -2913,8 +3216,11 @@
         <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>105</v>
       </c>
@@ -2934,8 +3240,11 @@
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>106</v>
       </c>
@@ -2955,8 +3264,11 @@
         <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>107</v>
       </c>
@@ -2976,8 +3288,11 @@
         <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
@@ -2997,8 +3312,11 @@
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>109</v>
       </c>
@@ -3018,8 +3336,11 @@
         <f t="shared" si="1"/>
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>110</v>
       </c>
@@ -3039,11 +3360,14 @@
         <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E108" s="3" t="s">
         <v>28</v>
       </c>
